--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7703099999999999</v>
+        <v>1.278090666666667</v>
       </c>
       <c r="H2">
-        <v>2.31093</v>
+        <v>3.834272</v>
       </c>
       <c r="I2">
-        <v>0.00408858949198478</v>
+        <v>0.006972379649082497</v>
       </c>
       <c r="J2">
-        <v>0.004129923058507431</v>
+        <v>0.006975522784029756</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N2">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O2">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P2">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q2">
-        <v>16.64311526847</v>
+        <v>23.14473938816</v>
       </c>
       <c r="R2">
-        <v>149.78803741623</v>
+        <v>208.30265449344</v>
       </c>
       <c r="S2">
-        <v>0.000183209965783495</v>
+        <v>0.0001977193120888994</v>
       </c>
       <c r="T2">
-        <v>0.0001863824438448666</v>
+        <v>0.0001996492546739765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7703099999999999</v>
+        <v>1.278090666666667</v>
       </c>
       <c r="H3">
-        <v>2.31093</v>
+        <v>3.834272</v>
       </c>
       <c r="I3">
-        <v>0.00408858949198478</v>
+        <v>0.006972379649082497</v>
       </c>
       <c r="J3">
-        <v>0.004129923058507431</v>
+        <v>0.006975522784029756</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>1.421584</v>
       </c>
       <c r="O3">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P3">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q3">
-        <v>0.3650201236799999</v>
+        <v>0.6056377474275555</v>
       </c>
       <c r="R3">
-        <v>3.28518111312</v>
+        <v>5.450739726848</v>
       </c>
       <c r="S3">
-        <v>4.018197512360783E-06</v>
+        <v>5.173801129845718E-06</v>
       </c>
       <c r="T3">
-        <v>4.087776933980711E-06</v>
+        <v>5.224302717281546E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7703099999999999</v>
+        <v>1.278090666666667</v>
       </c>
       <c r="H4">
-        <v>2.31093</v>
+        <v>3.834272</v>
       </c>
       <c r="I4">
-        <v>0.00408858949198478</v>
+        <v>0.006972379649082497</v>
       </c>
       <c r="J4">
-        <v>0.004129923058507431</v>
+        <v>0.006975522784029756</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N4">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O4">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P4">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q4">
-        <v>176.51394979902</v>
+        <v>390.7413780255787</v>
       </c>
       <c r="R4">
-        <v>1588.62554819118</v>
+        <v>3516.672402230208</v>
       </c>
       <c r="S4">
-        <v>0.001943092635082191</v>
+        <v>0.003337998979906766</v>
       </c>
       <c r="T4">
-        <v>0.001976739378749484</v>
+        <v>0.003370581261891286</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7703099999999999</v>
+        <v>1.278090666666667</v>
       </c>
       <c r="H5">
-        <v>2.31093</v>
+        <v>3.834272</v>
       </c>
       <c r="I5">
-        <v>0.00408858949198478</v>
+        <v>0.006972379649082497</v>
       </c>
       <c r="J5">
-        <v>0.004129923058507431</v>
+        <v>0.006975522784029756</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N5">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O5">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P5">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q5">
-        <v>7.893214433774999</v>
+        <v>22.57600118335466</v>
       </c>
       <c r="R5">
-        <v>47.35928660264999</v>
+        <v>135.456007100128</v>
       </c>
       <c r="S5">
-        <v>8.688971523698687E-05</v>
+        <v>0.0001928607338726196</v>
       </c>
       <c r="T5">
-        <v>5.892953621672146E-05</v>
+        <v>0.0001298288345120686</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7703099999999999</v>
+        <v>1.278090666666667</v>
       </c>
       <c r="H6">
-        <v>2.31093</v>
+        <v>3.834272</v>
       </c>
       <c r="I6">
-        <v>0.00408858949198478</v>
+        <v>0.006972379649082497</v>
       </c>
       <c r="J6">
-        <v>0.004129923058507431</v>
+        <v>0.006975522784029756</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N6">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O6">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P6">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q6">
-        <v>169.99935519231</v>
+        <v>379.1090156076658</v>
       </c>
       <c r="R6">
-        <v>1529.99419673079</v>
+        <v>3411.981140468992</v>
       </c>
       <c r="S6">
-        <v>0.001871378978369747</v>
+        <v>0.003238626822084368</v>
       </c>
       <c r="T6">
-        <v>0.001903783922762378</v>
+        <v>0.003270239130235142</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>180.6151046666667</v>
+        <v>180.6151046666666</v>
       </c>
       <c r="H7">
-        <v>541.845314</v>
+        <v>541.8453139999999</v>
       </c>
       <c r="I7">
-        <v>0.9586543327152246</v>
+        <v>0.9853112247342689</v>
       </c>
       <c r="J7">
-        <v>0.9683458419046875</v>
+        <v>0.9857554010844188</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N7">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O7">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P7">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q7">
-        <v>3902.322449655473</v>
+        <v>3270.730031991919</v>
       </c>
       <c r="R7">
-        <v>35120.90204689925</v>
+        <v>29436.57028792727</v>
       </c>
       <c r="S7">
-        <v>0.04295736410790769</v>
+        <v>0.02794097099597359</v>
       </c>
       <c r="T7">
-        <v>0.04370121717629228</v>
+        <v>0.02821370343279943</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>180.6151046666667</v>
+        <v>180.6151046666666</v>
       </c>
       <c r="H8">
-        <v>541.845314</v>
+        <v>541.8453139999999</v>
       </c>
       <c r="I8">
-        <v>0.9586543327152246</v>
+        <v>0.9853112247342689</v>
       </c>
       <c r="J8">
-        <v>0.9683458419046875</v>
+        <v>0.9857554010844188</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>1.421584</v>
       </c>
       <c r="O8">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P8">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q8">
-        <v>85.58651431748622</v>
+        <v>85.58651431748621</v>
       </c>
       <c r="R8">
-        <v>770.278628857376</v>
+        <v>770.2786288573759</v>
       </c>
       <c r="S8">
-        <v>0.0009421494778289033</v>
+        <v>0.0007311426778733505</v>
       </c>
       <c r="T8">
-        <v>0.0009584638116925809</v>
+        <v>0.000738279377747972</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>180.6151046666667</v>
+        <v>180.6151046666666</v>
       </c>
       <c r="H9">
-        <v>541.845314</v>
+        <v>541.8453139999999</v>
       </c>
       <c r="I9">
-        <v>0.9586543327152246</v>
+        <v>0.9853112247342689</v>
       </c>
       <c r="J9">
-        <v>0.9683458419046875</v>
+        <v>0.9857554010844188</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N9">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O9">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P9">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q9">
-        <v>41387.3447288452</v>
+        <v>55218.1443228499</v>
       </c>
       <c r="R9">
-        <v>372486.1025596068</v>
+        <v>496963.2989056492</v>
       </c>
       <c r="S9">
-        <v>0.455598239231477</v>
+        <v>0.4717138234844218</v>
       </c>
       <c r="T9">
-        <v>0.4634874138873438</v>
+        <v>0.4763182325646172</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>180.6151046666667</v>
+        <v>180.6151046666666</v>
       </c>
       <c r="H10">
-        <v>541.845314</v>
+        <v>541.8453139999999</v>
       </c>
       <c r="I10">
-        <v>0.9586543327152246</v>
+        <v>0.9853112247342689</v>
       </c>
       <c r="J10">
-        <v>0.9683458419046875</v>
+        <v>0.9857554010844188</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N10">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O10">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P10">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q10">
-        <v>1850.727306036162</v>
+        <v>3190.358026258747</v>
       </c>
       <c r="R10">
-        <v>11104.36383621697</v>
+        <v>19142.14815755248</v>
       </c>
       <c r="S10">
-        <v>0.02037309007021231</v>
+        <v>0.02725437446886398</v>
       </c>
       <c r="T10">
-        <v>0.01381724805823794</v>
+        <v>0.01834693668118637</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>180.6151046666667</v>
+        <v>180.6151046666666</v>
       </c>
       <c r="H11">
-        <v>541.845314</v>
+        <v>541.8453139999999</v>
       </c>
       <c r="I11">
-        <v>0.9586543327152246</v>
+        <v>0.9853112247342689</v>
       </c>
       <c r="J11">
-        <v>0.9683458419046875</v>
+        <v>0.9857554010844188</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N11">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O11">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P11">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q11">
-        <v>39859.86334245293</v>
+        <v>53574.30135425096</v>
       </c>
       <c r="R11">
-        <v>358738.7700820763</v>
+        <v>482168.7121882587</v>
       </c>
       <c r="S11">
-        <v>0.4387834898277987</v>
+        <v>0.4576709131071364</v>
       </c>
       <c r="T11">
-        <v>0.4463814989711209</v>
+        <v>0.4621382490280678</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.8976066666666668</v>
+        <v>0.50421</v>
       </c>
       <c r="H12">
-        <v>2.69282</v>
+        <v>1.51263</v>
       </c>
       <c r="I12">
-        <v>0.004764244505807817</v>
+        <v>0.002750621403122068</v>
       </c>
       <c r="J12">
-        <v>0.00481240860190918</v>
+        <v>0.002751861377807033</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N12">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O12">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P12">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q12">
-        <v>19.39345356944667</v>
+        <v>9.130658216399999</v>
       </c>
       <c r="R12">
-        <v>174.54108212502</v>
+        <v>82.1759239476</v>
       </c>
       <c r="S12">
-        <v>0.0002134861116784633</v>
+        <v>7.80007686061479E-05</v>
       </c>
       <c r="T12">
-        <v>0.0002171828538442678</v>
+        <v>7.876213583634574E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.8976066666666668</v>
+        <v>0.50421</v>
       </c>
       <c r="H13">
-        <v>2.69282</v>
+        <v>1.51263</v>
       </c>
       <c r="I13">
-        <v>0.004764244505807817</v>
+        <v>0.002750621403122068</v>
       </c>
       <c r="J13">
-        <v>0.00481240860190918</v>
+        <v>0.002751861377807033</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>1.421584</v>
       </c>
       <c r="O13">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P13">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q13">
-        <v>0.4253410918755556</v>
+        <v>0.23892562288</v>
       </c>
       <c r="R13">
-        <v>3.82806982688</v>
+        <v>2.15033060592</v>
       </c>
       <c r="S13">
-        <v>4.68221998296589E-06</v>
+        <v>2.041077629088007E-06</v>
       </c>
       <c r="T13">
-        <v>4.763297669493208E-06</v>
+        <v>2.061000633038445E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.8976066666666668</v>
+        <v>0.50421</v>
       </c>
       <c r="H14">
-        <v>2.69282</v>
+        <v>1.51263</v>
       </c>
       <c r="I14">
-        <v>0.004764244505807817</v>
+        <v>0.002750621403122068</v>
       </c>
       <c r="J14">
-        <v>0.00481240860190918</v>
+        <v>0.002751861377807033</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N14">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O14">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P14">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q14">
-        <v>205.68355350348</v>
+        <v>154.14846172698</v>
       </c>
       <c r="R14">
-        <v>1851.15198153132</v>
+        <v>1387.33615554282</v>
       </c>
       <c r="S14">
-        <v>0.002264196107022725</v>
+        <v>0.00131684903861186</v>
       </c>
       <c r="T14">
-        <v>0.002303403103462323</v>
+        <v>0.001329702831247918</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.8976066666666668</v>
+        <v>0.50421</v>
       </c>
       <c r="H15">
-        <v>2.69282</v>
+        <v>1.51263</v>
       </c>
       <c r="I15">
-        <v>0.004764244505807817</v>
+        <v>0.002750621403122068</v>
       </c>
       <c r="J15">
-        <v>0.00481240860190918</v>
+        <v>0.002751861377807033</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N15">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O15">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P15">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q15">
-        <v>9.197598236016667</v>
+        <v>8.906289556395</v>
       </c>
       <c r="R15">
-        <v>55.1855894161</v>
+        <v>53.43773733837</v>
       </c>
       <c r="S15">
-        <v>0.000101248572213119</v>
+        <v>7.608404721358857E-05</v>
       </c>
       <c r="T15">
-        <v>6.86678669259181E-05</v>
+        <v>5.121780352254361E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.8976066666666668</v>
+        <v>0.50421</v>
       </c>
       <c r="H16">
-        <v>2.69282</v>
+        <v>1.51263</v>
       </c>
       <c r="I16">
-        <v>0.004764244505807817</v>
+        <v>0.002750621403122068</v>
       </c>
       <c r="J16">
-        <v>0.00481240860190918</v>
+        <v>0.002751861377807033</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N16">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O16">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P16">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q16">
-        <v>198.0923972811622</v>
+        <v>149.55946533752</v>
       </c>
       <c r="R16">
-        <v>1782.83157553046</v>
+        <v>1346.03518803768</v>
       </c>
       <c r="S16">
-        <v>0.002180631494910544</v>
+        <v>0.001277646471061385</v>
       </c>
       <c r="T16">
-        <v>0.002218391480007178</v>
+        <v>0.001290117606567188</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>5.656844</v>
+        <v>0.2477925</v>
       </c>
       <c r="H17">
-        <v>11.313688</v>
+        <v>0.495585</v>
       </c>
       <c r="I17">
-        <v>0.03002494182367768</v>
+        <v>0.001351784681051794</v>
       </c>
       <c r="J17">
-        <v>0.02021898584031486</v>
+        <v>0.0009015960419405265</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N17">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O17">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P17">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q17">
-        <v>122.220283714028</v>
+        <v>4.4872347357</v>
       </c>
       <c r="R17">
-        <v>733.3217022841679</v>
+        <v>26.9234084142</v>
       </c>
       <c r="S17">
-        <v>0.001345419630645544</v>
+        <v>3.833324498688821E-05</v>
       </c>
       <c r="T17">
-        <v>0.0009124780146254281</v>
+        <v>2.580494442689581E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>5.656844</v>
+        <v>0.2477925</v>
       </c>
       <c r="H18">
-        <v>11.313688</v>
+        <v>0.495585</v>
       </c>
       <c r="I18">
-        <v>0.03002494182367768</v>
+        <v>0.001351784681051794</v>
       </c>
       <c r="J18">
-        <v>0.02021898584031486</v>
+        <v>0.0009015960419405265</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>1.421584</v>
       </c>
       <c r="O18">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P18">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q18">
-        <v>2.680559640298666</v>
+        <v>0.11741928444</v>
       </c>
       <c r="R18">
-        <v>16.083357841792</v>
+        <v>0.70451570664</v>
       </c>
       <c r="S18">
-        <v>2.950801169478914E-05</v>
+        <v>1.003081510493227E-06</v>
       </c>
       <c r="T18">
-        <v>2.001264981832178E-05</v>
+        <v>6.75248407557934E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>5.656844</v>
+        <v>0.2477925</v>
       </c>
       <c r="H19">
-        <v>11.313688</v>
+        <v>0.495585</v>
       </c>
       <c r="I19">
-        <v>0.03002494182367768</v>
+        <v>0.001351784681051794</v>
       </c>
       <c r="J19">
-        <v>0.02021898584031486</v>
+        <v>0.0009015960419405265</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N19">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O19">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P19">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q19">
-        <v>1296.246806917848</v>
+        <v>75.75580155586499</v>
       </c>
       <c r="R19">
-        <v>7777.480841507087</v>
+        <v>454.53480933519</v>
       </c>
       <c r="S19">
-        <v>0.01426928368346364</v>
+        <v>0.0006471615307118644</v>
       </c>
       <c r="T19">
-        <v>0.009677581142001485</v>
+        <v>0.00043565232583249</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>5.656844</v>
+        <v>0.2477925</v>
       </c>
       <c r="H20">
-        <v>11.313688</v>
+        <v>0.495585</v>
       </c>
       <c r="I20">
-        <v>0.03002494182367768</v>
+        <v>0.001351784681051794</v>
       </c>
       <c r="J20">
-        <v>0.02021898584031486</v>
+        <v>0.0009015960419405265</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N20">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O20">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P20">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q20">
-        <v>57.96456324130999</v>
+        <v>4.376969427228749</v>
       </c>
       <c r="R20">
-        <v>231.85825296524</v>
+        <v>17.507877708915</v>
       </c>
       <c r="S20">
-        <v>0.0006380828034168811</v>
+        <v>3.739127797777344E-05</v>
       </c>
       <c r="T20">
-        <v>0.0002885030644548675</v>
+        <v>1.678055780906089E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>5.656844</v>
+        <v>0.2477925</v>
       </c>
       <c r="H21">
-        <v>11.313688</v>
+        <v>0.495585</v>
       </c>
       <c r="I21">
-        <v>0.03002494182367768</v>
+        <v>0.001351784681051794</v>
       </c>
       <c r="J21">
-        <v>0.02021898584031486</v>
+        <v>0.0009015960419405265</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N21">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O21">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P21">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q21">
-        <v>1248.40626815631</v>
+        <v>73.50055297326</v>
       </c>
       <c r="R21">
-        <v>7490.437608937863</v>
+        <v>441.00331783956</v>
       </c>
       <c r="S21">
-        <v>0.01374264769445682</v>
+        <v>0.0006278955458647749</v>
       </c>
       <c r="T21">
-        <v>0.009320410969414755</v>
+        <v>0.0004226829654645218</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4649626666666666</v>
+        <v>0.6624720000000001</v>
       </c>
       <c r="H22">
-        <v>1.394888</v>
+        <v>1.987416</v>
       </c>
       <c r="I22">
-        <v>0.002467891463305105</v>
+        <v>0.003613989532474728</v>
       </c>
       <c r="J22">
-        <v>0.002492840594581105</v>
+        <v>0.003615618711803774</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N22">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O22">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P22">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q22">
-        <v>10.04586109081867</v>
+        <v>11.99659945248</v>
       </c>
       <c r="R22">
-        <v>90.412749817368</v>
+        <v>107.96939507232</v>
       </c>
       <c r="S22">
-        <v>0.000110586379834875</v>
+        <v>0.0001024837372921045</v>
       </c>
       <c r="T22">
-        <v>0.0001125013022159383</v>
+        <v>0.0001034840833219802</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4649626666666666</v>
+        <v>0.6624720000000001</v>
       </c>
       <c r="H23">
-        <v>1.394888</v>
+        <v>1.987416</v>
       </c>
       <c r="I23">
-        <v>0.002467891463305105</v>
+        <v>0.003613989532474728</v>
       </c>
       <c r="J23">
-        <v>0.002492840594581105</v>
+        <v>0.003615618711803774</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>1.421584</v>
       </c>
       <c r="O23">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P23">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q23">
-        <v>0.2203278291768889</v>
+        <v>0.313919865216</v>
       </c>
       <c r="R23">
-        <v>1.982950462592</v>
+        <v>2.825278786944</v>
       </c>
       <c r="S23">
-        <v>2.425402539939292E-06</v>
+        <v>2.681733363275599E-06</v>
       </c>
       <c r="T23">
-        <v>2.467400999548444E-06</v>
+        <v>2.707909822038922E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4649626666666666</v>
+        <v>0.6624720000000001</v>
       </c>
       <c r="H24">
-        <v>1.394888</v>
+        <v>1.987416</v>
       </c>
       <c r="I24">
-        <v>0.002467891463305105</v>
+        <v>0.003613989532474728</v>
       </c>
       <c r="J24">
-        <v>0.002492840594581105</v>
+        <v>0.003615618711803774</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N24">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O24">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P24">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q24">
-        <v>106.544633722032</v>
+        <v>202.532753688336</v>
       </c>
       <c r="R24">
-        <v>958.9017034982879</v>
+        <v>1822.794783195024</v>
       </c>
       <c r="S24">
-        <v>0.001172859671026178</v>
+        <v>0.001730183090988429</v>
       </c>
       <c r="T24">
-        <v>0.001193169000595046</v>
+        <v>0.0017470714464657</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4649626666666666</v>
+        <v>0.6624720000000001</v>
       </c>
       <c r="H25">
-        <v>1.394888</v>
+        <v>1.987416</v>
       </c>
       <c r="I25">
-        <v>0.002467891463305105</v>
+        <v>0.003613989532474728</v>
       </c>
       <c r="J25">
-        <v>0.002492840594581105</v>
+        <v>0.003615618711803774</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N25">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O25">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P25">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q25">
-        <v>4.764380615206666</v>
+        <v>11.701805705964</v>
       </c>
       <c r="R25">
-        <v>28.58628369123999</v>
+        <v>70.21083423578399</v>
       </c>
       <c r="S25">
-        <v>5.244703262647079E-05</v>
+        <v>9.996539324027775E-05</v>
       </c>
       <c r="T25">
-        <v>3.557013969019839E-05</v>
+        <v>6.729410510538567E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4649626666666666</v>
+        <v>0.6624720000000001</v>
       </c>
       <c r="H26">
-        <v>1.394888</v>
+        <v>1.987416</v>
       </c>
       <c r="I26">
-        <v>0.002467891463305105</v>
+        <v>0.003613989532474728</v>
       </c>
       <c r="J26">
-        <v>0.002492840594581105</v>
+        <v>0.003615618711803774</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N26">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O26">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P26">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q26">
-        <v>102.6123943890515</v>
+        <v>196.503357968064</v>
       </c>
       <c r="R26">
-        <v>923.5115495014638</v>
+        <v>1768.530221712576</v>
       </c>
       <c r="S26">
-        <v>0.001129572977277641</v>
+        <v>0.001678675577590642</v>
       </c>
       <c r="T26">
-        <v>0.001149132751080373</v>
+        <v>0.001695061167088669</v>
       </c>
     </row>
   </sheetData>
